--- a/transistor.xlsx
+++ b/transistor.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3B8F68-A3D4-4878-9060-0449C3B91265}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24746988-A0D9-4628-A272-8999510212E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="2160" windowWidth="18900" windowHeight="11055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="12180" windowWidth="24150" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>frenquency</t>
   </si>
@@ -183,13 +183,34 @@
   </si>
   <si>
     <t xml:space="preserve">serie da 2 </t>
+  </si>
+  <si>
+    <t>Modifiche per la corrente (x2)</t>
+  </si>
+  <si>
+    <t>360nm</t>
+  </si>
+  <si>
+    <t>240nm</t>
+  </si>
+  <si>
+    <t>720nm</t>
+  </si>
+  <si>
+    <t>--&gt;</t>
+  </si>
+  <si>
+    <t>CG3</t>
+  </si>
+  <si>
+    <t>Pista aereoporto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +220,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -318,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -346,6 +375,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -626,19 +657,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J24"/>
+  <dimension ref="A2:V24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -652,7 +686,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -671,7 +705,7 @@
         <v>1.7257500000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -686,16 +720,31 @@
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <f>D3*S8*POWER(10,-9)*F7+D3*S9*POWER(10,-9)*F7</f>
+        <v>7.5380760000000027E-15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="26">
         <f>(2*2*B4*POWER(10,-15)*B3*B2*POWER(10,9))/(D2*D3*D4*D4)</f>
         <v>1.4486455164421266</v>
       </c>
@@ -707,7 +756,7 @@
         <v>1.2000000000000002E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -729,8 +778,27 @@
         <f>ROUNDUP(B7,0)*F7</f>
         <v>2.4000000000000003E-7</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>720</v>
+      </c>
+      <c r="Q8">
+        <v>720</v>
+      </c>
+      <c r="R8" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="S8">
+        <v>1480</v>
+      </c>
+      <c r="T8">
+        <v>1480</v>
+      </c>
+      <c r="V8">
+        <f>1480/120</f>
+        <v>12.333333333333334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>11</v>
       </c>
@@ -738,26 +806,51 @@
         <f>ROUNDUP(B7,0)*F7*3</f>
         <v>7.2000000000000009E-7</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>1080</v>
+      </c>
+      <c r="Q9">
+        <v>2160</v>
+      </c>
+      <c r="S9">
+        <v>2160</v>
+      </c>
+      <c r="T9">
+        <f>S8*3</f>
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>(2*2*(B5)*B3*B2*POWER(10,9))/((D2/3)*D3*D4*D4)</f>
+        <v>0.32760000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
         <v>19</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>54</v>
+      </c>
+      <c r="T15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -765,7 +858,14 @@
         <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>53</v>
+      </c>
+      <c r="L16" t="s">
+        <v>55</v>
+      </c>
+      <c r="T16">
+        <f>T15*3</f>
+        <v>1080</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -853,6 +953,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -860,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8546C472-D775-4DFC-BA85-430FD97274B8}">
   <dimension ref="B2:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
